--- a/collected data.xlsx
+++ b/collected data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Other computers\My Laptop\Campus, Study, etc\Master\2. RESEARCH\Data\MAT+Stroop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEG RESEARCH CODE\Stress-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD634E68-42E8-41B3-B9DB-77A558825AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F62C7-3792-4CCE-B2B9-1C36F1C7BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2EA797-7331-4EB1-AE78-8BEFD319558A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E2EA797-7331-4EB1-AE78-8BEFD319558A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Subject C - B98" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Rest -&gt; Stress</t>
   </si>
@@ -59,16 +60,40 @@
     <t>Stress -&gt; Rest</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>SDNN</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Stroop 5mins</t>
   </si>
   <si>
-    <t>Running Total</t>
+    <t xml:space="preserve">Rest 1 </t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Rest 2</t>
+  </si>
+  <si>
+    <t>Abs HF</t>
+  </si>
+  <si>
+    <t>Abs LF</t>
+  </si>
+  <si>
+    <t>Norm LF</t>
+  </si>
+  <si>
+    <t>LF/HF</t>
+  </si>
+  <si>
+    <t>MAT 5mins</t>
+  </si>
+  <si>
+    <t>Subject C - SCWT</t>
+  </si>
+  <si>
+    <t>Subject C - MAT</t>
   </si>
 </sst>
 </file>
@@ -76,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +131,12 @@
       <sz val="14"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -161,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -175,11 +206,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2716,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C8F22-F5C2-4ADA-BCB8-E8867A5EAD9F}">
   <dimension ref="J7:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,6 +2808,32 @@
         <v>2.4934129199999999</v>
       </c>
     </row>
+    <row r="11" spans="10:12" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <f>'Subject C - B98'!D4-'Subject C - B98'!D3</f>
+        <v>18.604063484326701</v>
+      </c>
+      <c r="L11">
+        <f>'Subject C - B98'!B4-'Subject C - B98'!B3</f>
+        <v>-23.134209320716408</v>
+      </c>
+    </row>
+    <row r="12" spans="10:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="J12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <f>'Subject C - B98'!D10-'Subject C - B98'!D9</f>
+        <v>42.080911603357499</v>
+      </c>
+      <c r="L12">
+        <f>'Subject C - B98'!B10-'Subject C - B98'!B9</f>
+        <v>-38.857488790147407</v>
+      </c>
+    </row>
     <row r="19" spans="10:12" ht="37.5" x14ac:dyDescent="0.3">
       <c r="J19" s="1" t="s">
         <v>6</v>
@@ -2819,4 +2882,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBD2F47-448B-458D-A0B6-3D81E83EB56B}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>82.916779642689406</v>
+      </c>
+      <c r="C3">
+        <v>122056.781533171</v>
+      </c>
+      <c r="D3">
+        <v>33.3215939406766</v>
+      </c>
+      <c r="E3">
+        <v>103201.69053028899</v>
+      </c>
+      <c r="F3">
+        <v>28.1741397949862</v>
+      </c>
+      <c r="G3">
+        <v>0.84552197128220796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>59.782570321972997</v>
+      </c>
+      <c r="C4">
+        <v>97735.039972778497</v>
+      </c>
+      <c r="D4">
+        <v>51.925657425003301</v>
+      </c>
+      <c r="E4">
+        <v>49442.500458369701</v>
+      </c>
+      <c r="F4">
+        <v>26.268310134747299</v>
+      </c>
+      <c r="G4">
+        <v>0.50588305353065299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>59.480344351816903</v>
+      </c>
+      <c r="C5">
+        <v>58949.644845025097</v>
+      </c>
+      <c r="D5">
+        <v>12.2219606326969</v>
+      </c>
+      <c r="E5">
+        <v>284481.22775642999</v>
+      </c>
+      <c r="F5">
+        <v>58.981158843636699</v>
+      </c>
+      <c r="G5">
+        <v>4.8258344643858901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>91.314556956642804</v>
+      </c>
+      <c r="C9">
+        <v>110179.694947682</v>
+      </c>
+      <c r="D9">
+        <v>16.406050623996499</v>
+      </c>
+      <c r="E9">
+        <v>332442.715682665</v>
+      </c>
+      <c r="F9">
+        <v>49.501607584396702</v>
+      </c>
+      <c r="G9">
+        <v>3.01727751052971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>52.457068166495397</v>
+      </c>
+      <c r="C10">
+        <v>109738.668507821</v>
+      </c>
+      <c r="D10">
+        <v>58.486962227353999</v>
+      </c>
+      <c r="E10">
+        <v>56350.403952650297</v>
+      </c>
+      <c r="F10">
+        <v>30.032840677667799</v>
+      </c>
+      <c r="G10">
+        <v>0.51349633377986603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>55.119363756940103</v>
+      </c>
+      <c r="C11">
+        <v>118076.048341519</v>
+      </c>
+      <c r="D11">
+        <v>47.990614162162402</v>
+      </c>
+      <c r="E11">
+        <v>63234.331134981403</v>
+      </c>
+      <c r="F11">
+        <v>25.700846445368601</v>
+      </c>
+      <c r="G11">
+        <v>0.53553901932832704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>